--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -100,58 +100,58 @@
     <t>risk</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>care</t>
@@ -772,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.905982905982906</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>0.8807339449541285</v>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>0.8793103448275862</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.8723404255319149</v>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -1154,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>0.8181818181818182</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>0.8141025641025641</v>
@@ -1254,7 +1254,7 @@
         <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0.7659574468085106</v>
@@ -1304,16 +1304,16 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7577092511013216</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>0.93</v>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1354,28 +1354,28 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L13">
+        <v>172</v>
+      </c>
+      <c r="M13">
+        <v>172</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>67</v>
-      </c>
-      <c r="M13">
-        <v>72</v>
-      </c>
-      <c r="N13">
-        <v>0.93</v>
-      </c>
-      <c r="O13">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1404,28 +1404,28 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.6851851851851852</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="L14">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1457,13 +1457,13 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.6716417910447762</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="N15">
         <v>0.9399999999999999</v>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1507,25 +1507,25 @@
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.6713780918727915</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1557,25 +1557,25 @@
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1833,25 +1833,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1355932203389831</v>
+        <v>0.01857399640503295</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>238</v>
+        <v>505</v>
       </c>
       <c r="E23">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F23">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>102</v>
+        <v>1638</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
@@ -1883,25 +1883,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01857399640503295</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>505</v>
+        <v>749</v>
       </c>
       <c r="E24">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F24">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1638</v>
+        <v>2358</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
@@ -1929,30 +1929,6 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.01256281407035176</v>
-      </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-      <c r="D25">
-        <v>749</v>
-      </c>
-      <c r="E25">
-        <v>0.96</v>
-      </c>
-      <c r="F25">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2358</v>
-      </c>
       <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
@@ -3072,7 +3048,7 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K68">
         <v>0.2336691582710432</v>
@@ -3150,7 +3126,7 @@
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K71">
         <v>0.2244318181818182</v>
